--- a/ButlerHighwayKaileyBoettcher.xlsx
+++ b/ButlerHighwayKaileyBoettcher.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7aae43f62c39fb3/Documents/XCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8BB27D7-B469-4429-AF7C-568C1447FC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="8_{D8BB27D7-B469-4429-AF7C-568C1447FC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3978D4F-F8D1-46C2-8ADF-355BB1DFB1F9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1920" yWindow="1700" windowWidth="14400" windowHeight="8250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
-    <sheet name="Data" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Assignment</t>
   </si>
@@ -129,6 +128,18 @@
   </si>
   <si>
     <t>Percentile</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted Time</t>
+  </si>
+  <si>
+    <t>Residuals</t>
   </si>
 </sst>
 </file>
@@ -223,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -238,15 +249,14 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2271,6 +2281,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2562,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7534B040-E51C-43A4-9DD4-9633EF58BC89}">
   <dimension ref="A1:I325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -2583,48 +2597,48 @@
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>0.90407396985717736</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>0.81734974297331653</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>0.81611977491253085</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>0.82996721645614102</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>300</v>
       </c>
     </row>
@@ -2634,185 +2648,183 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>915.51606262358905</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>457.75803131179453</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>664.52924188223597</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12">
         <v>2.2418818553989605E-110</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>297</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>204.58713737641057</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <v>0.68884558039195476</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>299</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1120.1031999999996</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>0.12733713676828895</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>0.20520347966887892</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>0.62054082598288829</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17">
         <v>0.53537765983413954</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17">
         <v>-0.2764999305699386</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17">
         <v>0.5311742041065165</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17">
         <v>-0.2764999305699386</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17">
         <v>0.5311742041065165</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
         <v>6.7181742053579852E-2</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>2.4549785593370103E-3</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
         <v>27.365510708053964</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>3.539798334696646E-83</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18">
         <v>6.2350384693652769E-2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18">
         <v>7.2013099413506934E-2</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18">
         <v>6.2350384693652769E-2</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18">
         <v>7.2013099413506934E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>0.68999828040422384</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>2.952105707681411E-2</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>23.373088524873648</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>2.8482580380845942E-69</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>0.63190132642536267</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>0.74809523438308501</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>0.63190132642536267</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>0.74809523438308501</v>
       </c>
     </row>
@@ -2823,2410 +2835,2410 @@
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+      <c r="A26">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26">
         <v>2.8</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+      <c r="A27">
         <v>0.5</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27">
         <v>3.1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+      <c r="A28">
         <v>0.83333333333333326</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28">
         <v>3.1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+      <c r="A29">
         <v>1.1666666666666667</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29">
         <v>3.2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+      <c r="A30">
         <v>1.5</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30">
         <v>3.4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+      <c r="A31">
         <v>1.8333333333333333</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31">
         <v>3.5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+      <c r="A32">
         <v>2.1666666666666665</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32">
         <v>3.5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+      <c r="A33">
         <v>2.4999999999999996</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33">
         <v>3.5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+      <c r="A34">
         <v>2.833333333333333</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34">
         <v>3.5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+      <c r="A35">
         <v>3.1666666666666665</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35">
         <v>3.6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+      <c r="A36">
         <v>3.4999999999999996</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36">
         <v>3.6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+      <c r="A37">
         <v>3.833333333333333</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37">
         <v>3.6</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+      <c r="A38">
         <v>4.166666666666667</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38">
         <v>3.7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+      <c r="A39">
         <v>4.5</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39">
         <v>3.8</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+      <c r="A40">
         <v>4.833333333333333</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40">
         <v>3.9</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
+      <c r="A41">
         <v>5.166666666666667</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+      <c r="A42">
         <v>5.5</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+      <c r="A43">
         <v>5.833333333333333</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+      <c r="A44">
         <v>6.166666666666667</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44">
         <v>4.2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
+      <c r="A45">
         <v>6.5</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45">
         <v>4.2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
+      <c r="A46">
         <v>6.833333333333333</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46">
         <v>4.2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="8">
+      <c r="A47">
         <v>7.166666666666667</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47">
         <v>4.3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="8">
+      <c r="A48">
         <v>7.5</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48">
         <v>4.5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="8">
+      <c r="A49">
         <v>7.833333333333333</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49">
         <v>4.5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="8">
+      <c r="A50">
         <v>8.1666666666666661</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="8">
+      <c r="A51">
         <v>8.4999999999999982</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="8">
+      <c r="A52">
         <v>8.8333333333333321</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52">
         <v>4.7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="8">
+      <c r="A53">
         <v>9.1666666666666661</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53">
         <v>4.8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="8">
+      <c r="A54">
         <v>9.4999999999999982</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54">
         <v>4.8</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="8">
+      <c r="A55">
         <v>9.8333333333333321</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55">
         <v>4.8</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="8">
+      <c r="A56">
         <v>10.166666666666666</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="8">
+      <c r="A57">
         <v>10.499999999999998</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="8">
+      <c r="A58">
         <v>10.833333333333332</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="8">
+      <c r="A59">
         <v>11.166666666666666</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="8">
+      <c r="A60">
         <v>11.499999999999998</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
+      <c r="A61">
         <v>11.833333333333332</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="8">
+      <c r="A62">
         <v>12.166666666666666</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="8">
+      <c r="A63">
         <v>12.499999999999998</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="8">
+      <c r="A64">
         <v>12.833333333333332</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="8">
+      <c r="A65">
         <v>13.166666666666666</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65">
         <v>5.2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="8">
+      <c r="A66">
         <v>13.499999999999998</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66">
         <v>5.2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="8">
+      <c r="A67">
         <v>13.833333333333332</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67">
         <v>5.2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
+      <c r="A68">
         <v>14.166666666666666</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68">
         <v>5.2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="8">
+      <c r="A69">
         <v>14.499999999999998</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69">
         <v>5.3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="8">
+      <c r="A70">
         <v>14.833333333333332</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70">
         <v>5.3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="8">
+      <c r="A71">
         <v>15.166666666666666</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71">
         <v>5.3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="8">
+      <c r="A72">
         <v>15.499999999999998</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72">
         <v>5.4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="8">
+      <c r="A73">
         <v>15.833333333333332</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73">
         <v>5.4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="8">
+      <c r="A74">
         <v>16.166666666666668</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74">
         <v>5.5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="8">
+      <c r="A75">
         <v>16.5</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75">
         <v>5.5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="8">
+      <c r="A76">
         <v>16.833333333333332</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76">
         <v>5.5</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="8">
+      <c r="A77">
         <v>17.166666666666668</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77">
         <v>5.5</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="8">
+      <c r="A78">
         <v>17.5</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78">
         <v>5.5</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="8">
+      <c r="A79">
         <v>17.833333333333332</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79">
         <v>5.5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="8">
+      <c r="A80">
         <v>18.166666666666668</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80">
         <v>5.6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="8">
+      <c r="A81">
         <v>18.5</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81">
         <v>5.6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="8">
+      <c r="A82">
         <v>18.833333333333332</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82">
         <v>5.6</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="8">
+      <c r="A83">
         <v>19.166666666666668</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83">
         <v>5.7</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="8">
+      <c r="A84">
         <v>19.5</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84">
         <v>5.7</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="8">
+      <c r="A85">
         <v>19.833333333333332</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85">
         <v>5.7</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="8">
+      <c r="A86">
         <v>20.166666666666668</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86">
         <v>5.7</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="8">
+      <c r="A87">
         <v>20.5</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87">
         <v>5.7</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="8">
+      <c r="A88">
         <v>20.833333333333332</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88">
         <v>5.7</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="8">
+      <c r="A89">
         <v>21.166666666666668</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89">
         <v>5.7</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="8">
+      <c r="A90">
         <v>21.5</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90">
         <v>5.7</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="8">
+      <c r="A91">
         <v>21.833333333333332</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91">
         <v>5.7</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="8">
+      <c r="A92">
         <v>22.166666666666668</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92">
         <v>5.7</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="8">
+      <c r="A93">
         <v>22.5</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93">
         <v>5.7</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="8">
+      <c r="A94">
         <v>22.833333333333332</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94">
         <v>5.8</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="8">
+      <c r="A95">
         <v>23.166666666666668</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95">
         <v>5.8</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="8">
+      <c r="A96">
         <v>23.5</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96">
         <v>5.8</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="8">
+      <c r="A97">
         <v>23.833333333333332</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97">
         <v>5.8</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="8">
+      <c r="A98">
         <v>24.166666666666668</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98">
         <v>5.9</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="8">
+      <c r="A99">
         <v>24.5</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99">
         <v>5.9</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="8">
+      <c r="A100">
         <v>24.833333333333332</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100">
         <v>5.9</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="8">
+      <c r="A101">
         <v>25.166666666666668</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101">
         <v>5.9</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="8">
+      <c r="A102">
         <v>25.5</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102">
         <v>5.9</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="8">
+      <c r="A103">
         <v>25.833333333333332</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103">
         <v>5.9</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="8">
+      <c r="A104">
         <v>26.166666666666668</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104">
         <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="8">
+      <c r="A105">
         <v>26.5</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105">
         <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="8">
+      <c r="A106">
         <v>26.833333333333332</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106">
         <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="8">
+      <c r="A107">
         <v>27.166666666666668</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107">
         <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="8">
+      <c r="A108">
         <v>27.5</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108">
         <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="8">
+      <c r="A109">
         <v>27.833333333333332</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="8">
+      <c r="A110">
         <v>28.166666666666668</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110">
         <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="8">
+      <c r="A111">
         <v>28.5</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111">
         <v>6.1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="8">
+      <c r="A112">
         <v>28.833333333333332</v>
       </c>
-      <c r="B112" s="8">
+      <c r="B112">
         <v>6.1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="8">
+      <c r="A113">
         <v>29.166666666666668</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B113">
         <v>6.1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="8">
+      <c r="A114">
         <v>29.5</v>
       </c>
-      <c r="B114" s="8">
+      <c r="B114">
         <v>6.1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="8">
+      <c r="A115">
         <v>29.833333333333332</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115">
         <v>6.1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="8">
+      <c r="A116">
         <v>30.166666666666668</v>
       </c>
-      <c r="B116" s="8">
+      <c r="B116">
         <v>6.1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="8">
+      <c r="A117">
         <v>30.5</v>
       </c>
-      <c r="B117" s="8">
+      <c r="B117">
         <v>6.1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="8">
+      <c r="A118">
         <v>30.833333333333332</v>
       </c>
-      <c r="B118" s="8">
+      <c r="B118">
         <v>6.1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="8">
+      <c r="A119">
         <v>31.166666666666668</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119">
         <v>6.2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="8">
+      <c r="A120">
         <v>31.5</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120">
         <v>6.2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="8">
+      <c r="A121">
         <v>31.833333333333332</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121">
         <v>6.2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="8">
+      <c r="A122">
         <v>32.166666666666664</v>
       </c>
-      <c r="B122" s="8">
+      <c r="B122">
         <v>6.2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="8">
+      <c r="A123">
         <v>32.499999999999993</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123">
         <v>6.2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="8">
+      <c r="A124">
         <v>32.833333333333329</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B124">
         <v>6.3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="8">
+      <c r="A125">
         <v>33.166666666666664</v>
       </c>
-      <c r="B125" s="8">
+      <c r="B125">
         <v>6.3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="8">
+      <c r="A126">
         <v>33.499999999999993</v>
       </c>
-      <c r="B126" s="8">
+      <c r="B126">
         <v>6.3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="8">
+      <c r="A127">
         <v>33.833333333333329</v>
       </c>
-      <c r="B127" s="8">
+      <c r="B127">
         <v>6.3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="8">
+      <c r="A128">
         <v>34.166666666666664</v>
       </c>
-      <c r="B128" s="8">
+      <c r="B128">
         <v>6.3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="8">
+      <c r="A129">
         <v>34.499999999999993</v>
       </c>
-      <c r="B129" s="8">
+      <c r="B129">
         <v>6.3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="8">
+      <c r="A130">
         <v>34.833333333333329</v>
       </c>
-      <c r="B130" s="8">
+      <c r="B130">
         <v>6.3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="8">
+      <c r="A131">
         <v>35.166666666666664</v>
       </c>
-      <c r="B131" s="8">
+      <c r="B131">
         <v>6.4</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="8">
+      <c r="A132">
         <v>35.499999999999993</v>
       </c>
-      <c r="B132" s="8">
+      <c r="B132">
         <v>6.4</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="8">
+      <c r="A133">
         <v>35.833333333333329</v>
       </c>
-      <c r="B133" s="8">
+      <c r="B133">
         <v>6.4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="8">
+      <c r="A134">
         <v>36.166666666666664</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134">
         <v>6.4</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="8">
+      <c r="A135">
         <v>36.499999999999993</v>
       </c>
-      <c r="B135" s="8">
+      <c r="B135">
         <v>6.4</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="8">
+      <c r="A136">
         <v>36.833333333333329</v>
       </c>
-      <c r="B136" s="8">
+      <c r="B136">
         <v>6.5</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="8">
+      <c r="A137">
         <v>37.166666666666664</v>
       </c>
-      <c r="B137" s="8">
+      <c r="B137">
         <v>6.5</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="8">
+      <c r="A138">
         <v>37.499999999999993</v>
       </c>
-      <c r="B138" s="8">
+      <c r="B138">
         <v>6.5</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="8">
+      <c r="A139">
         <v>37.833333333333329</v>
       </c>
-      <c r="B139" s="8">
+      <c r="B139">
         <v>6.5</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="8">
+      <c r="A140">
         <v>38.166666666666664</v>
       </c>
-      <c r="B140" s="8">
+      <c r="B140">
         <v>6.5</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="8">
+      <c r="A141">
         <v>38.499999999999993</v>
       </c>
-      <c r="B141" s="8">
+      <c r="B141">
         <v>6.5</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="8">
+      <c r="A142">
         <v>38.833333333333329</v>
       </c>
-      <c r="B142" s="8">
+      <c r="B142">
         <v>6.5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="8">
+      <c r="A143">
         <v>39.166666666666664</v>
       </c>
-      <c r="B143" s="8">
+      <c r="B143">
         <v>6.6</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="8">
+      <c r="A144">
         <v>39.499999999999993</v>
       </c>
-      <c r="B144" s="8">
+      <c r="B144">
         <v>6.7</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="8">
+      <c r="A145">
         <v>39.833333333333329</v>
       </c>
-      <c r="B145" s="8">
+      <c r="B145">
         <v>6.7</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="8">
+      <c r="A146">
         <v>40.166666666666664</v>
       </c>
-      <c r="B146" s="8">
+      <c r="B146">
         <v>6.7</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="8">
+      <c r="A147">
         <v>40.499999999999993</v>
       </c>
-      <c r="B147" s="8">
+      <c r="B147">
         <v>6.8</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="8">
+      <c r="A148">
         <v>40.833333333333329</v>
       </c>
-      <c r="B148" s="8">
+      <c r="B148">
         <v>6.8</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="8">
+      <c r="A149">
         <v>41.166666666666664</v>
       </c>
-      <c r="B149" s="8">
+      <c r="B149">
         <v>6.8</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="8">
+      <c r="A150">
         <v>41.499999999999993</v>
       </c>
-      <c r="B150" s="8">
+      <c r="B150">
         <v>6.8</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="8">
+      <c r="A151">
         <v>41.833333333333329</v>
       </c>
-      <c r="B151" s="8">
+      <c r="B151">
         <v>6.8</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="8">
+      <c r="A152">
         <v>42.166666666666664</v>
       </c>
-      <c r="B152" s="8">
+      <c r="B152">
         <v>6.8</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="8">
+      <c r="A153">
         <v>42.499999999999993</v>
       </c>
-      <c r="B153" s="8">
+      <c r="B153">
         <v>6.9</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="8">
+      <c r="A154">
         <v>42.833333333333329</v>
       </c>
-      <c r="B154" s="8">
+      <c r="B154">
         <v>6.9</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="8">
+      <c r="A155">
         <v>43.166666666666664</v>
       </c>
-      <c r="B155" s="8">
+      <c r="B155">
         <v>6.9</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="8">
+      <c r="A156">
         <v>43.499999999999993</v>
       </c>
-      <c r="B156" s="8">
+      <c r="B156">
         <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="8">
+      <c r="A157">
         <v>43.833333333333329</v>
       </c>
-      <c r="B157" s="8">
+      <c r="B157">
         <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="8">
+      <c r="A158">
         <v>44.166666666666664</v>
       </c>
-      <c r="B158" s="8">
+      <c r="B158">
         <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="8">
+      <c r="A159">
         <v>44.499999999999993</v>
       </c>
-      <c r="B159" s="8">
+      <c r="B159">
         <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="8">
+      <c r="A160">
         <v>44.833333333333329</v>
       </c>
-      <c r="B160" s="8">
+      <c r="B160">
         <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="8">
+      <c r="A161">
         <v>45.166666666666664</v>
       </c>
-      <c r="B161" s="8">
+      <c r="B161">
         <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="8">
+      <c r="A162">
         <v>45.499999999999993</v>
       </c>
-      <c r="B162" s="8">
+      <c r="B162">
         <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="8">
+      <c r="A163">
         <v>45.833333333333329</v>
       </c>
-      <c r="B163" s="8">
+      <c r="B163">
         <v>7.1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="8">
+      <c r="A164">
         <v>46.166666666666664</v>
       </c>
-      <c r="B164" s="8">
+      <c r="B164">
         <v>7.1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="8">
+      <c r="A165">
         <v>46.499999999999993</v>
       </c>
-      <c r="B165" s="8">
+      <c r="B165">
         <v>7.1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="8">
+      <c r="A166">
         <v>46.833333333333329</v>
       </c>
-      <c r="B166" s="8">
+      <c r="B166">
         <v>7.1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="8">
+      <c r="A167">
         <v>47.166666666666664</v>
       </c>
-      <c r="B167" s="8">
+      <c r="B167">
         <v>7.1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="8">
+      <c r="A168">
         <v>47.499999999999993</v>
       </c>
-      <c r="B168" s="8">
+      <c r="B168">
         <v>7.1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="8">
+      <c r="A169">
         <v>47.833333333333329</v>
       </c>
-      <c r="B169" s="8">
+      <c r="B169">
         <v>7.1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="8">
+      <c r="A170">
         <v>48.166666666666664</v>
       </c>
-      <c r="B170" s="8">
+      <c r="B170">
         <v>7.1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="8">
+      <c r="A171">
         <v>48.499999999999993</v>
       </c>
-      <c r="B171" s="8">
+      <c r="B171">
         <v>7.2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="8">
+      <c r="A172">
         <v>48.833333333333329</v>
       </c>
-      <c r="B172" s="8">
+      <c r="B172">
         <v>7.2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="8">
+      <c r="A173">
         <v>49.166666666666664</v>
       </c>
-      <c r="B173" s="8">
+      <c r="B173">
         <v>7.2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="8">
+      <c r="A174">
         <v>49.499999999999993</v>
       </c>
-      <c r="B174" s="8">
+      <c r="B174">
         <v>7.2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="8">
+      <c r="A175">
         <v>49.833333333333329</v>
       </c>
-      <c r="B175" s="8">
+      <c r="B175">
         <v>7.2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="8">
+      <c r="A176">
         <v>50.166666666666664</v>
       </c>
-      <c r="B176" s="8">
+      <c r="B176">
         <v>7.2</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="8">
+      <c r="A177">
         <v>50.499999999999993</v>
       </c>
-      <c r="B177" s="8">
+      <c r="B177">
         <v>7.2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="8">
+      <c r="A178">
         <v>50.833333333333329</v>
       </c>
-      <c r="B178" s="8">
+      <c r="B178">
         <v>7.2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="8">
+      <c r="A179">
         <v>51.166666666666664</v>
       </c>
-      <c r="B179" s="8">
+      <c r="B179">
         <v>7.2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="8">
+      <c r="A180">
         <v>51.499999999999993</v>
       </c>
-      <c r="B180" s="8">
+      <c r="B180">
         <v>7.2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="8">
+      <c r="A181">
         <v>51.833333333333329</v>
       </c>
-      <c r="B181" s="8">
+      <c r="B181">
         <v>7.2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="8">
+      <c r="A182">
         <v>52.166666666666664</v>
       </c>
-      <c r="B182" s="8">
+      <c r="B182">
         <v>7.3</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="8">
+      <c r="A183">
         <v>52.499999999999993</v>
       </c>
-      <c r="B183" s="8">
+      <c r="B183">
         <v>7.3</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="8">
+      <c r="A184">
         <v>52.833333333333329</v>
       </c>
-      <c r="B184" s="8">
+      <c r="B184">
         <v>7.3</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="8">
+      <c r="A185">
         <v>53.166666666666664</v>
       </c>
-      <c r="B185" s="8">
+      <c r="B185">
         <v>7.4</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="8">
+      <c r="A186">
         <v>53.499999999999993</v>
       </c>
-      <c r="B186" s="8">
+      <c r="B186">
         <v>7.4</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="8">
+      <c r="A187">
         <v>53.833333333333329</v>
       </c>
-      <c r="B187" s="8">
+      <c r="B187">
         <v>7.4</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="8">
+      <c r="A188">
         <v>54.166666666666664</v>
       </c>
-      <c r="B188" s="8">
+      <c r="B188">
         <v>7.4</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="8">
+      <c r="A189">
         <v>54.499999999999993</v>
       </c>
-      <c r="B189" s="8">
+      <c r="B189">
         <v>7.5</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="8">
+      <c r="A190">
         <v>54.833333333333329</v>
       </c>
-      <c r="B190" s="8">
+      <c r="B190">
         <v>7.5</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="8">
+      <c r="A191">
         <v>55.166666666666664</v>
       </c>
-      <c r="B191" s="8">
+      <c r="B191">
         <v>7.5</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="8">
+      <c r="A192">
         <v>55.499999999999993</v>
       </c>
-      <c r="B192" s="8">
+      <c r="B192">
         <v>7.5</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="8">
+      <c r="A193">
         <v>55.833333333333329</v>
       </c>
-      <c r="B193" s="8">
+      <c r="B193">
         <v>7.5</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="8">
+      <c r="A194">
         <v>56.166666666666664</v>
       </c>
-      <c r="B194" s="8">
+      <c r="B194">
         <v>7.6</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="8">
+      <c r="A195">
         <v>56.499999999999993</v>
       </c>
-      <c r="B195" s="8">
+      <c r="B195">
         <v>7.6</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="8">
+      <c r="A196">
         <v>56.833333333333329</v>
       </c>
-      <c r="B196" s="8">
+      <c r="B196">
         <v>7.6</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="8">
+      <c r="A197">
         <v>57.166666666666664</v>
       </c>
-      <c r="B197" s="8">
+      <c r="B197">
         <v>7.6</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="8">
+      <c r="A198">
         <v>57.499999999999993</v>
       </c>
-      <c r="B198" s="8">
+      <c r="B198">
         <v>7.6</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="8">
+      <c r="A199">
         <v>57.833333333333329</v>
       </c>
-      <c r="B199" s="8">
+      <c r="B199">
         <v>7.6</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="8">
+      <c r="A200">
         <v>58.166666666666664</v>
       </c>
-      <c r="B200" s="8">
+      <c r="B200">
         <v>7.7</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="8">
+      <c r="A201">
         <v>58.499999999999993</v>
       </c>
-      <c r="B201" s="8">
+      <c r="B201">
         <v>7.7</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="8">
+      <c r="A202">
         <v>58.833333333333329</v>
       </c>
-      <c r="B202" s="8">
+      <c r="B202">
         <v>7.7</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="8">
+      <c r="A203">
         <v>59.166666666666664</v>
       </c>
-      <c r="B203" s="8">
+      <c r="B203">
         <v>7.8</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="8">
+      <c r="A204">
         <v>59.499999999999993</v>
       </c>
-      <c r="B204" s="8">
+      <c r="B204">
         <v>7.8</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="8">
+      <c r="A205">
         <v>59.833333333333329</v>
       </c>
-      <c r="B205" s="8">
+      <c r="B205">
         <v>7.8</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="8">
+      <c r="A206">
         <v>60.166666666666664</v>
       </c>
-      <c r="B206" s="8">
+      <c r="B206">
         <v>7.8</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="8">
+      <c r="A207">
         <v>60.499999999999993</v>
       </c>
-      <c r="B207" s="8">
+      <c r="B207">
         <v>7.9</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="8">
+      <c r="A208">
         <v>60.833333333333329</v>
       </c>
-      <c r="B208" s="8">
+      <c r="B208">
         <v>7.9</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="8">
+      <c r="A209">
         <v>61.166666666666664</v>
       </c>
-      <c r="B209" s="8">
+      <c r="B209">
         <v>7.9</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="8">
+      <c r="A210">
         <v>61.499999999999993</v>
       </c>
-      <c r="B210" s="8">
+      <c r="B210">
         <v>7.9</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="8">
+      <c r="A211">
         <v>61.833333333333329</v>
       </c>
-      <c r="B211" s="8">
+      <c r="B211">
         <v>7.9</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="8">
+      <c r="A212">
         <v>62.166666666666664</v>
       </c>
-      <c r="B212" s="8">
+      <c r="B212">
         <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="8">
+      <c r="A213">
         <v>62.499999999999993</v>
       </c>
-      <c r="B213" s="8">
+      <c r="B213">
         <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="8">
+      <c r="A214">
         <v>62.833333333333329</v>
       </c>
-      <c r="B214" s="8">
+      <c r="B214">
         <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="8">
+      <c r="A215">
         <v>63.166666666666664</v>
       </c>
-      <c r="B215" s="8">
+      <c r="B215">
         <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="8">
+      <c r="A216">
         <v>63.499999999999993</v>
       </c>
-      <c r="B216" s="8">
+      <c r="B216">
         <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="8">
+      <c r="A217">
         <v>63.833333333333329</v>
       </c>
-      <c r="B217" s="8">
+      <c r="B217">
         <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="8">
+      <c r="A218">
         <v>64.166666666666671</v>
       </c>
-      <c r="B218" s="8">
+      <c r="B218">
         <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="8">
+      <c r="A219">
         <v>64.5</v>
       </c>
-      <c r="B219" s="8">
+      <c r="B219">
         <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="8">
+      <c r="A220">
         <v>64.833333333333329</v>
       </c>
-      <c r="B220" s="8">
+      <c r="B220">
         <v>8.1</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="8">
+      <c r="A221">
         <v>65.166666666666671</v>
       </c>
-      <c r="B221" s="8">
+      <c r="B221">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="8">
+      <c r="A222">
         <v>65.5</v>
       </c>
-      <c r="B222" s="8">
+      <c r="B222">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="8">
+      <c r="A223">
         <v>65.833333333333329</v>
       </c>
-      <c r="B223" s="8">
+      <c r="B223">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="8">
+      <c r="A224">
         <v>66.166666666666671</v>
       </c>
-      <c r="B224" s="8">
+      <c r="B224">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="8">
+      <c r="A225">
         <v>66.5</v>
       </c>
-      <c r="B225" s="8">
+      <c r="B225">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="8">
+      <c r="A226">
         <v>66.833333333333329</v>
       </c>
-      <c r="B226" s="8">
+      <c r="B226">
         <v>8.4</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="8">
+      <c r="A227">
         <v>67.166666666666671</v>
       </c>
-      <c r="B227" s="8">
+      <c r="B227">
         <v>8.4</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="8">
+      <c r="A228">
         <v>67.5</v>
       </c>
-      <c r="B228" s="8">
+      <c r="B228">
         <v>8.4</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="8">
+      <c r="A229">
         <v>67.833333333333329</v>
       </c>
-      <c r="B229" s="8">
+      <c r="B229">
         <v>8.4</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="8">
+      <c r="A230">
         <v>68.166666666666671</v>
       </c>
-      <c r="B230" s="8">
+      <c r="B230">
         <v>8.4</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="8">
+      <c r="A231">
         <v>68.5</v>
       </c>
-      <c r="B231" s="8">
+      <c r="B231">
         <v>8.4</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="8">
+      <c r="A232">
         <v>68.833333333333329</v>
       </c>
-      <c r="B232" s="8">
+      <c r="B232">
         <v>8.5</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="8">
+      <c r="A233">
         <v>69.166666666666671</v>
       </c>
-      <c r="B233" s="8">
+      <c r="B233">
         <v>8.5</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="8">
+      <c r="A234">
         <v>69.5</v>
       </c>
-      <c r="B234" s="8">
+      <c r="B234">
         <v>8.5</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="8">
+      <c r="A235">
         <v>69.833333333333329</v>
       </c>
-      <c r="B235" s="8">
+      <c r="B235">
         <v>8.5</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="8">
+      <c r="A236">
         <v>70.166666666666671</v>
       </c>
-      <c r="B236" s="8">
+      <c r="B236">
         <v>8.5</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="8">
+      <c r="A237">
         <v>70.5</v>
       </c>
-      <c r="B237" s="8">
+      <c r="B237">
         <v>8.5</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="8">
+      <c r="A238">
         <v>70.833333333333329</v>
       </c>
-      <c r="B238" s="8">
+      <c r="B238">
         <v>8.5</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="8">
+      <c r="A239">
         <v>71.166666666666671</v>
       </c>
-      <c r="B239" s="8">
+      <c r="B239">
         <v>8.5</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="8">
+      <c r="A240">
         <v>71.5</v>
       </c>
-      <c r="B240" s="8">
+      <c r="B240">
         <v>8.5</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="8">
+      <c r="A241">
         <v>71.833333333333329</v>
       </c>
-      <c r="B241" s="8">
+      <c r="B241">
         <v>8.5</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="8">
+      <c r="A242">
         <v>72.166666666666671</v>
       </c>
-      <c r="B242" s="8">
+      <c r="B242">
         <v>8.6</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="8">
+      <c r="A243">
         <v>72.5</v>
       </c>
-      <c r="B243" s="8">
+      <c r="B243">
         <v>8.6</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="8">
+      <c r="A244">
         <v>72.833333333333329</v>
       </c>
-      <c r="B244" s="8">
+      <c r="B244">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="8">
+      <c r="A245">
         <v>73.166666666666671</v>
       </c>
-      <c r="B245" s="8">
+      <c r="B245">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="8">
+      <c r="A246">
         <v>73.5</v>
       </c>
-      <c r="B246" s="8">
+      <c r="B246">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="8">
+      <c r="A247">
         <v>73.833333333333329</v>
       </c>
-      <c r="B247" s="8">
+      <c r="B247">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="8">
+      <c r="A248">
         <v>74.166666666666671</v>
       </c>
-      <c r="B248" s="8">
+      <c r="B248">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="8">
+      <c r="A249">
         <v>74.5</v>
       </c>
-      <c r="B249" s="8">
+      <c r="B249">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="8">
+      <c r="A250">
         <v>74.833333333333329</v>
       </c>
-      <c r="B250" s="8">
+      <c r="B250">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="8">
+      <c r="A251">
         <v>75.166666666666671</v>
       </c>
-      <c r="B251" s="8">
+      <c r="B251">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" s="8">
+      <c r="A252">
         <v>75.5</v>
       </c>
-      <c r="B252" s="8">
+      <c r="B252">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="8">
+      <c r="A253">
         <v>75.833333333333329</v>
       </c>
-      <c r="B253" s="8">
+      <c r="B253">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="8">
+      <c r="A254">
         <v>76.166666666666671</v>
       </c>
-      <c r="B254" s="8">
+      <c r="B254">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" s="8">
+      <c r="A255">
         <v>76.5</v>
       </c>
-      <c r="B255" s="8">
+      <c r="B255">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" s="8">
+      <c r="A256">
         <v>76.833333333333329</v>
       </c>
-      <c r="B256" s="8">
+      <c r="B256">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="8">
+      <c r="A257">
         <v>77.166666666666671</v>
       </c>
-      <c r="B257" s="8">
+      <c r="B257">
         <v>8.9</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="8">
+      <c r="A258">
         <v>77.5</v>
       </c>
-      <c r="B258" s="8">
+      <c r="B258">
         <v>8.9</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="8">
+      <c r="A259">
         <v>77.833333333333329</v>
       </c>
-      <c r="B259" s="8">
+      <c r="B259">
         <v>8.9</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="8">
+      <c r="A260">
         <v>78.166666666666671</v>
       </c>
-      <c r="B260" s="8">
+      <c r="B260">
         <v>8.9</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="8">
+      <c r="A261">
         <v>78.5</v>
       </c>
-      <c r="B261" s="8">
+      <c r="B261">
         <v>8.9</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="8">
+      <c r="A262">
         <v>78.833333333333329</v>
       </c>
-      <c r="B262" s="8">
+      <c r="B262">
         <v>8.9</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="8">
+      <c r="A263">
         <v>79.166666666666671</v>
       </c>
-      <c r="B263" s="8">
+      <c r="B263">
         <v>8.9</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="8">
+      <c r="A264">
         <v>79.5</v>
       </c>
-      <c r="B264" s="8">
+      <c r="B264">
         <v>8.9</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="8">
+      <c r="A265">
         <v>79.833333333333329</v>
       </c>
-      <c r="B265" s="8">
+      <c r="B265">
         <v>8.9</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="8">
+      <c r="A266">
         <v>80.166666666666671</v>
       </c>
-      <c r="B266" s="8">
+      <c r="B266">
         <v>8.9</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="8">
+      <c r="A267">
         <v>80.5</v>
       </c>
-      <c r="B267" s="8">
+      <c r="B267">
         <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="8">
+      <c r="A268">
         <v>80.833333333333329</v>
       </c>
-      <c r="B268" s="8">
+      <c r="B268">
         <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="8">
+      <c r="A269">
         <v>81.166666666666671</v>
       </c>
-      <c r="B269" s="8">
+      <c r="B269">
         <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" s="8">
+      <c r="A270">
         <v>81.5</v>
       </c>
-      <c r="B270" s="8">
+      <c r="B270">
         <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="8">
+      <c r="A271">
         <v>81.833333333333329</v>
       </c>
-      <c r="B271" s="8">
+      <c r="B271">
         <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" s="8">
+      <c r="A272">
         <v>82.166666666666671</v>
       </c>
-      <c r="B272" s="8">
+      <c r="B272">
         <v>9.1</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="8">
+      <c r="A273">
         <v>82.5</v>
       </c>
-      <c r="B273" s="8">
+      <c r="B273">
         <v>9.1</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" s="8">
+      <c r="A274">
         <v>82.833333333333329</v>
       </c>
-      <c r="B274" s="8">
+      <c r="B274">
         <v>9.1</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" s="8">
+      <c r="A275">
         <v>83.166666666666671</v>
       </c>
-      <c r="B275" s="8">
+      <c r="B275">
         <v>9.1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="8">
+      <c r="A276">
         <v>83.5</v>
       </c>
-      <c r="B276" s="8">
+      <c r="B276">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" s="8">
+      <c r="A277">
         <v>83.833333333333329</v>
       </c>
-      <c r="B277" s="8">
+      <c r="B277">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" s="8">
+      <c r="A278">
         <v>84.166666666666671</v>
       </c>
-      <c r="B278" s="8">
+      <c r="B278">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" s="8">
+      <c r="A279">
         <v>84.5</v>
       </c>
-      <c r="B279" s="8">
+      <c r="B279">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" s="8">
+      <c r="A280">
         <v>84.833333333333329</v>
       </c>
-      <c r="B280" s="8">
+      <c r="B280">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" s="8">
+      <c r="A281">
         <v>85.166666666666671</v>
       </c>
-      <c r="B281" s="8">
+      <c r="B281">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" s="8">
+      <c r="A282">
         <v>85.5</v>
       </c>
-      <c r="B282" s="8">
+      <c r="B282">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" s="8">
+      <c r="A283">
         <v>85.833333333333329</v>
       </c>
-      <c r="B283" s="8">
+      <c r="B283">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" s="8">
+      <c r="A284">
         <v>86.166666666666671</v>
       </c>
-      <c r="B284" s="8">
+      <c r="B284">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" s="8">
+      <c r="A285">
         <v>86.5</v>
       </c>
-      <c r="B285" s="8">
+      <c r="B285">
         <v>9.4</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" s="8">
+      <c r="A286">
         <v>86.833333333333329</v>
       </c>
-      <c r="B286" s="8">
+      <c r="B286">
         <v>9.4</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" s="8">
+      <c r="A287">
         <v>87.166666666666671</v>
       </c>
-      <c r="B287" s="8">
+      <c r="B287">
         <v>9.4</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" s="8">
+      <c r="A288">
         <v>87.5</v>
       </c>
-      <c r="B288" s="8">
+      <c r="B288">
         <v>9.4</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="8">
+      <c r="A289">
         <v>87.833333333333329</v>
       </c>
-      <c r="B289" s="8">
+      <c r="B289">
         <v>9.4</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" s="8">
+      <c r="A290">
         <v>88.166666666666671</v>
       </c>
-      <c r="B290" s="8">
+      <c r="B290">
         <v>9.5</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" s="8">
+      <c r="A291">
         <v>88.5</v>
       </c>
-      <c r="B291" s="8">
+      <c r="B291">
         <v>9.6</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="8">
+      <c r="A292">
         <v>88.833333333333329</v>
       </c>
-      <c r="B292" s="8">
+      <c r="B292">
         <v>9.6</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="8">
+      <c r="A293">
         <v>89.166666666666671</v>
       </c>
-      <c r="B293" s="8">
+      <c r="B293">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="8">
+      <c r="A294">
         <v>89.5</v>
       </c>
-      <c r="B294" s="8">
+      <c r="B294">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" s="8">
+      <c r="A295">
         <v>89.833333333333329</v>
       </c>
-      <c r="B295" s="8">
+      <c r="B295">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" s="8">
+      <c r="A296">
         <v>90.166666666666671</v>
       </c>
-      <c r="B296" s="8">
+      <c r="B296">
         <v>9.9</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" s="8">
+      <c r="A297">
         <v>90.5</v>
       </c>
-      <c r="B297" s="8">
+      <c r="B297">
         <v>9.9</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" s="8">
+      <c r="A298">
         <v>90.833333333333329</v>
       </c>
-      <c r="B298" s="8">
+      <c r="B298">
         <v>9.9</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="8">
+      <c r="A299">
         <v>91.166666666666671</v>
       </c>
-      <c r="B299" s="8">
+      <c r="B299">
         <v>9.9</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="8">
+      <c r="A300">
         <v>91.5</v>
       </c>
-      <c r="B300" s="8">
+      <c r="B300">
         <v>9.9</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" s="8">
+      <c r="A301">
         <v>91.833333333333329</v>
       </c>
-      <c r="B301" s="8">
+      <c r="B301">
         <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" s="8">
+      <c r="A302">
         <v>92.166666666666671</v>
       </c>
-      <c r="B302" s="8">
+      <c r="B302">
         <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" s="8">
+      <c r="A303">
         <v>92.5</v>
       </c>
-      <c r="B303" s="8">
+      <c r="B303">
         <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" s="8">
+      <c r="A304">
         <v>92.833333333333329</v>
       </c>
-      <c r="B304" s="8">
+      <c r="B304">
         <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" s="8">
+      <c r="A305">
         <v>93.166666666666671</v>
       </c>
-      <c r="B305" s="8">
+      <c r="B305">
         <v>10.1</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" s="8">
+      <c r="A306">
         <v>93.5</v>
       </c>
-      <c r="B306" s="8">
+      <c r="B306">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="8">
+      <c r="A307">
         <v>93.833333333333329</v>
       </c>
-      <c r="B307" s="8">
+      <c r="B307">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="8">
+      <c r="A308">
         <v>94.166666666666671</v>
       </c>
-      <c r="B308" s="8">
+      <c r="B308">
         <v>10.3</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" s="8">
+      <c r="A309">
         <v>94.5</v>
       </c>
-      <c r="B309" s="8">
+      <c r="B309">
         <v>10.3</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" s="8">
+      <c r="A310">
         <v>94.833333333333329</v>
       </c>
-      <c r="B310" s="8">
+      <c r="B310">
         <v>10.4</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="8">
+      <c r="A311">
         <v>95.166666666666671</v>
       </c>
-      <c r="B311" s="8">
+      <c r="B311">
         <v>10.6</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="8">
+      <c r="A312">
         <v>95.5</v>
       </c>
-      <c r="B312" s="8">
+      <c r="B312">
         <v>10.6</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="8">
+      <c r="A313">
         <v>95.833333333333329</v>
       </c>
-      <c r="B313" s="8">
+      <c r="B313">
         <v>10.8</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" s="8">
+      <c r="A314">
         <v>96.166666666666671</v>
       </c>
-      <c r="B314" s="8">
+      <c r="B314">
         <v>10.9</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" s="8">
+      <c r="A315">
         <v>96.5</v>
       </c>
-      <c r="B315" s="8">
+      <c r="B315">
         <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="8">
+      <c r="A316">
         <v>96.833333333333329</v>
       </c>
-      <c r="B316" s="8">
+      <c r="B316">
         <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="8">
+      <c r="A317">
         <v>97.166666666666671</v>
       </c>
-      <c r="B317" s="8">
+      <c r="B317">
         <v>11.1</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" s="8">
+      <c r="A318">
         <v>97.5</v>
       </c>
-      <c r="B318" s="8">
+      <c r="B318">
         <v>11.2</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="8">
+      <c r="A319">
         <v>97.833333333333329</v>
       </c>
-      <c r="B319" s="8">
+      <c r="B319">
         <v>11.2</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="8">
+      <c r="A320">
         <v>98.166666666666671</v>
       </c>
-      <c r="B320" s="8">
+      <c r="B320">
         <v>11.3</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" s="8">
+      <c r="A321">
         <v>98.5</v>
       </c>
-      <c r="B321" s="8">
+      <c r="B321">
         <v>11.3</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="8">
+      <c r="A322">
         <v>98.833333333333329</v>
       </c>
-      <c r="B322" s="8">
+      <c r="B322">
         <v>11.5</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323" s="8">
+      <c r="A323">
         <v>99.166666666666671</v>
       </c>
-      <c r="B323" s="8">
+      <c r="B323">
         <v>11.7</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324" s="8">
+      <c r="A324">
         <v>99.5</v>
       </c>
-      <c r="B324" s="8">
+      <c r="B324">
         <v>12.2</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A325" s="9">
+      <c r="A325" s="8">
         <v>99.833333333333329</v>
       </c>
-      <c r="B325" s="9">
+      <c r="B325" s="8">
         <v>12.3</v>
       </c>
     </row>
@@ -5240,10 +5252,3609 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5BF7D9-9314-43C8-8D9C-781B7D5909FE}">
+  <dimension ref="A1:I326"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D324" sqref="D324"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.94010722815394976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.88380160042730249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.88262391394514672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.66310642616384541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>989.94900080374248</v>
+      </c>
+      <c r="D12">
+        <v>329.98300026791418</v>
+      </c>
+      <c r="E12">
+        <v>750.45575695963805</v>
+      </c>
+      <c r="F12">
+        <v>5.7766280211206763E-138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>296</v>
+      </c>
+      <c r="C13">
+        <v>130.15419919625705</v>
+      </c>
+      <c r="D13">
+        <v>0.43971013241978735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8">
+        <v>299</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1120.1031999999996</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-0.33022930443400722</v>
+      </c>
+      <c r="C17">
+        <v>0.16767792520172056</v>
+      </c>
+      <c r="D17">
+        <v>-1.9694262320859079</v>
+      </c>
+      <c r="E17">
+        <v>4.9836509835018916E-2</v>
+      </c>
+      <c r="F17">
+        <v>-0.66022126000436376</v>
+      </c>
+      <c r="G17">
+        <v>-2.373488636507326E-4</v>
+      </c>
+      <c r="H17">
+        <v>-0.66022126000436376</v>
+      </c>
+      <c r="I17">
+        <v>-2.373488636507326E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>6.7220302345733784E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.961419541553142E-3</v>
+      </c>
+      <c r="D18">
+        <v>34.271251469487076</v>
+      </c>
+      <c r="E18">
+        <v>4.7851855909105959E-105</v>
+      </c>
+      <c r="F18">
+        <v>6.336020764673049E-2</v>
+      </c>
+      <c r="G18">
+        <v>7.1080397044737079E-2</v>
+      </c>
+      <c r="H18">
+        <v>6.336020764673049E-2</v>
+      </c>
+      <c r="I18">
+        <v>7.1080397044737079E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>0.67351584017674304</v>
+      </c>
+      <c r="C19">
+        <v>2.3619992565204057E-2</v>
+      </c>
+      <c r="D19">
+        <v>28.514650811911654</v>
+      </c>
+      <c r="E19">
+        <v>6.7479678991178509E-87</v>
+      </c>
+      <c r="F19">
+        <v>0.62703144142376399</v>
+      </c>
+      <c r="G19">
+        <v>0.72000023892972209</v>
+      </c>
+      <c r="H19">
+        <v>0.62703144142376399</v>
+      </c>
+      <c r="I19">
+        <v>0.72000023892972209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.99800330026356043</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7.6706582260483644E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>13.01066050465521</v>
+      </c>
+      <c r="E20" s="8">
+        <v>6.4981658118298831E-31</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.84704392350121205</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1.1489626770259089</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.84704392350121205</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1.1489626770259089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>9.0858642908463434</v>
+      </c>
+      <c r="C27">
+        <v>0.21413570915365732</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>5.0513333333829111</v>
+      </c>
+      <c r="C28">
+        <v>-0.25133333338291131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>9.0858642908463434</v>
+      </c>
+      <c r="C29">
+        <v>-0.18586429084634304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>7.7388326104928575</v>
+      </c>
+      <c r="C30">
+        <v>-1.2388326104928575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>4.3778174932061678</v>
+      </c>
+      <c r="C31">
+        <v>-0.17781749320616758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>6.3944265635781816</v>
+      </c>
+      <c r="C32">
+        <v>-0.19442656357818144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>7.7298441922898169</v>
+      </c>
+      <c r="C33">
+        <v>-0.32984419228981654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>6.733153708745661</v>
+      </c>
+      <c r="C34">
+        <v>-0.73315370874566099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>7.740145427212263</v>
+      </c>
+      <c r="C35">
+        <v>-0.14014542721226331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>7.0666295870355196</v>
+      </c>
+      <c r="C36">
+        <v>-0.96662958703551993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>7.3963683139999574</v>
+      </c>
+      <c r="C37">
+        <v>-0.39636831399995742</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>6.7357793421844718</v>
+      </c>
+      <c r="C38">
+        <v>0.26422065781552817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>9.7490788961006398</v>
+      </c>
+      <c r="C39">
+        <v>-0.14907889610064018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>6.3841253286557356</v>
+      </c>
+      <c r="C40">
+        <v>0.11587467134426443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>7.3976811307193628</v>
+      </c>
+      <c r="C41">
+        <v>-0.19768113071936266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>6.0493366336464716</v>
+      </c>
+      <c r="C42">
+        <v>-4.9336633646471562E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>9.0768758726433028</v>
+      </c>
+      <c r="C43">
+        <v>0.8231241273566976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <v>8.4033600324665603</v>
+      </c>
+      <c r="C44">
+        <v>0.19663996753343937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>6.0596378685689185</v>
+      </c>
+      <c r="C45">
+        <v>-1.1596378685689182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>7.740145427212263</v>
+      </c>
+      <c r="C46">
+        <v>-0.24014542721226295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>6.7292152585874456</v>
+      </c>
+      <c r="C47">
+        <v>0.47078474141255455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>10.096794459471161</v>
+      </c>
+      <c r="C48">
+        <v>-0.19679445947116037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>4.7023049532929857</v>
+      </c>
+      <c r="C49">
+        <v>0.89769504670701394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>7.067942403754925</v>
+      </c>
+      <c r="C50">
+        <v>0.432057596245075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>8.06463288729908</v>
+      </c>
+      <c r="C51">
+        <v>-0.26463288729908019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>8.0659457040184854</v>
+      </c>
+      <c r="C52">
+        <v>-0.86594570401848525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>6.7318408920262565</v>
+      </c>
+      <c r="C53">
+        <v>0.26815910797374354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>28</v>
+      </c>
+      <c r="B54">
+        <v>7.4027310987641881</v>
+      </c>
+      <c r="C54">
+        <v>1.2972689012358112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>29</v>
+      </c>
+      <c r="B55">
+        <v>7.3911170471223375</v>
+      </c>
+      <c r="C55">
+        <v>-0.99111704712233717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>30</v>
+      </c>
+      <c r="B56">
+        <v>9.4103517509331613</v>
+      </c>
+      <c r="C56">
+        <v>0.48964824906683901</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>31</v>
+      </c>
+      <c r="B57">
+        <v>4.3765046764867632</v>
+      </c>
+      <c r="C57">
+        <v>-0.27650467648676358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>32</v>
+      </c>
+      <c r="B58">
+        <v>9.4116645676525668</v>
+      </c>
+      <c r="C58">
+        <v>-0.11166456765256605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>33</v>
+      </c>
+      <c r="B59">
+        <v>8.7407743609146333</v>
+      </c>
+      <c r="C59">
+        <v>0.35922563908536631</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>34</v>
+      </c>
+      <c r="B60">
+        <v>9.7593801310230859</v>
+      </c>
+      <c r="C60">
+        <v>-0.85938013102308553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>35</v>
+      </c>
+      <c r="B61">
+        <v>5.0526461501023157</v>
+      </c>
+      <c r="C61">
+        <v>0.3473538498976847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>36</v>
+      </c>
+      <c r="B62">
+        <v>6.3944265635781816</v>
+      </c>
+      <c r="C62">
+        <v>-0.49442656357818127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>37</v>
+      </c>
+      <c r="B63">
+        <v>8.4136612673890063</v>
+      </c>
+      <c r="C63">
+        <v>0.38633873261099438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>38</v>
+      </c>
+      <c r="B64">
+        <v>8.4149740841084117</v>
+      </c>
+      <c r="C64">
+        <v>-1.497408410841139E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>39</v>
+      </c>
+      <c r="B65">
+        <v>8.4007343990277477</v>
+      </c>
+      <c r="C65">
+        <v>0.9992656009722527</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>40</v>
+      </c>
+      <c r="B66">
+        <v>9.0768758726433028</v>
+      </c>
+      <c r="C66">
+        <v>-0.27687587264330205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>41</v>
+      </c>
+      <c r="B67">
+        <v>5.3771336101891336</v>
+      </c>
+      <c r="C67">
+        <v>-0.37713361018913361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>42</v>
+      </c>
+      <c r="B68">
+        <v>5.713235121917803</v>
+      </c>
+      <c r="C68">
+        <v>0.78676487808219697</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>43</v>
+      </c>
+      <c r="B69">
+        <v>8.7523884125564848</v>
+      </c>
+      <c r="C69">
+        <v>-5.238841255648552E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>44</v>
+      </c>
+      <c r="B70">
+        <v>8.749762779117674</v>
+      </c>
+      <c r="C70">
+        <v>-0.34976277911767362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>45</v>
+      </c>
+      <c r="B71">
+        <v>4.7139190049348372</v>
+      </c>
+      <c r="C71">
+        <v>2.3860809950651625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>46</v>
+      </c>
+      <c r="B72">
+        <v>7.7298441922898169</v>
+      </c>
+      <c r="C72">
+        <v>-1.6298441922898173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>47</v>
+      </c>
+      <c r="B73">
+        <v>4.7139190049348372</v>
+      </c>
+      <c r="C73">
+        <v>0.486080995065163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>48</v>
+      </c>
+      <c r="B74">
+        <v>10.43289597119983</v>
+      </c>
+      <c r="C74">
+        <v>-0.43289597119983014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>49</v>
+      </c>
+      <c r="B75">
+        <v>5.7248491735596545</v>
+      </c>
+      <c r="C75">
+        <v>-0.62484917355965486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>50</v>
+      </c>
+      <c r="B76">
+        <v>4.0301019298356469</v>
+      </c>
+      <c r="C76">
+        <v>-0.43010192983564677</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>51</v>
+      </c>
+      <c r="B77">
+        <v>8.4136612673890063</v>
+      </c>
+      <c r="C77">
+        <v>-1.3661267389005971E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>52</v>
+      </c>
+      <c r="B78">
+        <v>6.7189140236649996</v>
+      </c>
+      <c r="C78">
+        <v>-0.31891402366499921</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>53</v>
+      </c>
+      <c r="B79">
+        <v>7.067942403754925</v>
+      </c>
+      <c r="C79">
+        <v>-0.36794240375492482</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>54</v>
+      </c>
+      <c r="B80">
+        <v>10.085180407829309</v>
+      </c>
+      <c r="C80">
+        <v>-1.5851804078293092</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>55</v>
+      </c>
+      <c r="B81">
+        <v>6.3970521970169916</v>
+      </c>
+      <c r="C81">
+        <v>-0.49705219701699122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>56</v>
+      </c>
+      <c r="B82">
+        <v>3.7056144697488298</v>
+      </c>
+      <c r="C82">
+        <v>-0.90561446974882998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>57</v>
+      </c>
+      <c r="B83">
+        <v>8.0672585207378908</v>
+      </c>
+      <c r="C83">
+        <v>-0.16725852073789049</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>58</v>
+      </c>
+      <c r="B84">
+        <v>9.0742502392044919</v>
+      </c>
+      <c r="C84">
+        <v>-0.17425023920449156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>59</v>
+      </c>
+      <c r="B85">
+        <v>5.726161990279059</v>
+      </c>
+      <c r="C85">
+        <v>0.27383800972094097</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>60</v>
+      </c>
+      <c r="B86">
+        <v>3.3682001413007563</v>
+      </c>
+      <c r="C86">
+        <v>-0.2682001413007562</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>61</v>
+      </c>
+      <c r="B87">
+        <v>6.0622635020077285</v>
+      </c>
+      <c r="C87">
+        <v>0.23773649799227137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>62</v>
+      </c>
+      <c r="B88">
+        <v>7.4066695489224044</v>
+      </c>
+      <c r="C88">
+        <v>9.3330451077595633E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>63</v>
+      </c>
+      <c r="B89">
+        <v>6.7305280753068502</v>
+      </c>
+      <c r="C89">
+        <v>0.46947192469315002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>64</v>
+      </c>
+      <c r="B90">
+        <v>6.7305280753068502</v>
+      </c>
+      <c r="C90">
+        <v>1.2694719246931498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>65</v>
+      </c>
+      <c r="B91">
+        <v>6.7318408920262565</v>
+      </c>
+      <c r="C91">
+        <v>6.815910797374336E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>66</v>
+      </c>
+      <c r="B92">
+        <v>5.3887476618309851</v>
+      </c>
+      <c r="C92">
+        <v>-0.28874766183098544</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>67</v>
+      </c>
+      <c r="B93">
+        <v>3.0320986295720869</v>
+      </c>
+      <c r="C93">
+        <v>0.16790137042791331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>68</v>
+      </c>
+      <c r="B94">
+        <v>6.3931137468587771</v>
+      </c>
+      <c r="C94">
+        <v>-0.49311374685877674</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>69</v>
+      </c>
+      <c r="B95">
+        <v>7.7388326104928575</v>
+      </c>
+      <c r="C95">
+        <v>6.1167389507142289E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>70</v>
+      </c>
+      <c r="B96">
+        <v>5.3848092116727706</v>
+      </c>
+      <c r="C96">
+        <v>0.41519078832722922</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>71</v>
+      </c>
+      <c r="B97">
+        <v>3.3682001413007563</v>
+      </c>
+      <c r="C97">
+        <v>0.43179985869924353</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>72</v>
+      </c>
+      <c r="B98">
+        <v>7.0550155353936681</v>
+      </c>
+      <c r="C98">
+        <v>-0.25501553539366828</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>73</v>
+      </c>
+      <c r="B99">
+        <v>6.0480238169270661</v>
+      </c>
+      <c r="C99">
+        <v>-0.34802381692706597</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>74</v>
+      </c>
+      <c r="B100">
+        <v>5.7222235401208437</v>
+      </c>
+      <c r="C100">
+        <v>-0.22222354012084367</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>75</v>
+      </c>
+      <c r="B101">
+        <v>9.0755630559238973</v>
+      </c>
+      <c r="C101">
+        <v>0.12443694407610195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>76</v>
+      </c>
+      <c r="B102">
+        <v>8.7407743609146333</v>
+      </c>
+      <c r="C102">
+        <v>0.25922563908536667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>77</v>
+      </c>
+      <c r="B103">
+        <v>9.4245914360138237</v>
+      </c>
+      <c r="C103">
+        <v>-0.12459143601382294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>78</v>
+      </c>
+      <c r="B104">
+        <v>8.7510755958370794</v>
+      </c>
+      <c r="C104">
+        <v>4.892440416292132E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>79</v>
+      </c>
+      <c r="B105">
+        <v>6.7241652905426195</v>
+      </c>
+      <c r="C105">
+        <v>0.37583470945738018</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>80</v>
+      </c>
+      <c r="B106">
+        <v>10.421281919557979</v>
+      </c>
+      <c r="C106">
+        <v>0.37871808044202204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>81</v>
+      </c>
+      <c r="B107">
+        <v>7.0602668022712889</v>
+      </c>
+      <c r="C107">
+        <v>-0.16026680227128853</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>82</v>
+      </c>
+      <c r="B108">
+        <v>9.4245914360138237</v>
+      </c>
+      <c r="C108">
+        <v>-2.4591436013823298E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>83</v>
+      </c>
+      <c r="B109">
+        <v>4.0417159814774992</v>
+      </c>
+      <c r="C109">
+        <v>-0.44171598147749913</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>84</v>
+      </c>
+      <c r="B110">
+        <v>7.7272185588510061</v>
+      </c>
+      <c r="C110">
+        <v>-0.12721855885100641</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>85</v>
+      </c>
+      <c r="B111">
+        <v>8.4046728491859639</v>
+      </c>
+      <c r="C111">
+        <v>9.5327150814036088E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>86</v>
+      </c>
+      <c r="B112">
+        <v>7.4040439154835935</v>
+      </c>
+      <c r="C112">
+        <v>-0.30404391548359389</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>87</v>
+      </c>
+      <c r="B113">
+        <v>7.3976811307193628</v>
+      </c>
+      <c r="C113">
+        <v>-0.2976811307193632</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>88</v>
+      </c>
+      <c r="B114">
+        <v>6.385438145375141</v>
+      </c>
+      <c r="C114">
+        <v>-0.38543814537514098</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>89</v>
+      </c>
+      <c r="B115">
+        <v>5.0397192817410597</v>
+      </c>
+      <c r="C115">
+        <v>0.26028071825894017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>90</v>
+      </c>
+      <c r="B116">
+        <v>6.0596378685689185</v>
+      </c>
+      <c r="C116">
+        <v>0.24036213143108132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>91</v>
+      </c>
+      <c r="B117">
+        <v>9.7490788961006398</v>
+      </c>
+      <c r="C117">
+        <v>0.45092110389935947</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>92</v>
+      </c>
+      <c r="B118">
+        <v>6.0583250518495131</v>
+      </c>
+      <c r="C118">
+        <v>1.5416749481504866</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>93</v>
+      </c>
+      <c r="B119">
+        <v>5.3771336101891336</v>
+      </c>
+      <c r="C119">
+        <v>0.62286638981086639</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>94</v>
+      </c>
+      <c r="B120">
+        <v>9.0755630559238973</v>
+      </c>
+      <c r="C120">
+        <v>-0.17556305592389698</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>95</v>
+      </c>
+      <c r="B121">
+        <v>7.0550155353936681</v>
+      </c>
+      <c r="C121">
+        <v>0.54498446460633154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>96</v>
+      </c>
+      <c r="B122">
+        <v>6.3996778304558024</v>
+      </c>
+      <c r="C122">
+        <v>0.20032216954419724</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>97</v>
+      </c>
+      <c r="B123">
+        <v>8.4059856659053693</v>
+      </c>
+      <c r="C123">
+        <v>-0.40598566590536933</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>98</v>
+      </c>
+      <c r="B124">
+        <v>9.7606929477424913</v>
+      </c>
+      <c r="C124">
+        <v>-6.0692947742492009E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>99</v>
+      </c>
+      <c r="B125">
+        <v>6.0570122351301077</v>
+      </c>
+      <c r="C125">
+        <v>0.14298776486989251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>100</v>
+      </c>
+      <c r="B126">
+        <v>4.3662034415643163</v>
+      </c>
+      <c r="C126">
+        <v>-6.6203441564316456E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>101</v>
+      </c>
+      <c r="B127">
+        <v>4.3778174932061678</v>
+      </c>
+      <c r="C127">
+        <v>-0.17781749320616758</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>102</v>
+      </c>
+      <c r="B128">
+        <v>7.395055497280552</v>
+      </c>
+      <c r="C128">
+        <v>0.604944502719448</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>103</v>
+      </c>
+      <c r="B129">
+        <v>5.0397192817410597</v>
+      </c>
+      <c r="C129">
+        <v>0.46028071825894035</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>104</v>
+      </c>
+      <c r="B130">
+        <v>8.0775597556603369</v>
+      </c>
+      <c r="C130">
+        <v>0.82244024433966345</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>105</v>
+      </c>
+      <c r="B131">
+        <v>7.3911170471223375</v>
+      </c>
+      <c r="C131">
+        <v>-0.29111704712233788</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>106</v>
+      </c>
+      <c r="B132">
+        <v>4.7036177700123902</v>
+      </c>
+      <c r="C132">
+        <v>0.79638222998760977</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>107</v>
+      </c>
+      <c r="B133">
+        <v>8.7394615441952279</v>
+      </c>
+      <c r="C133">
+        <v>0.56053845580477279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>108</v>
+      </c>
+      <c r="B134">
+        <v>8.0672585207378908</v>
+      </c>
+      <c r="C134">
+        <v>1.1327414792621084</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>109</v>
+      </c>
+      <c r="B135">
+        <v>6.7202268403844041</v>
+      </c>
+      <c r="C135">
+        <v>-0.42022684038440428</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>110</v>
+      </c>
+      <c r="B136">
+        <v>7.7414582439316675</v>
+      </c>
+      <c r="C136">
+        <v>0.85854175606833216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>111</v>
+      </c>
+      <c r="B137">
+        <v>11.430899271463391</v>
+      </c>
+      <c r="C137">
+        <v>-0.43089927146339058</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>112</v>
+      </c>
+      <c r="B138">
+        <v>6.382812511936331</v>
+      </c>
+      <c r="C138">
+        <v>0.31718748806366914</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>113</v>
+      </c>
+      <c r="B139">
+        <v>5.0513333333829111</v>
+      </c>
+      <c r="C139">
+        <v>0.44866666661708887</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>114</v>
+      </c>
+      <c r="B140">
+        <v>7.7337826424480323</v>
+      </c>
+      <c r="C140">
+        <v>0.36621735755196738</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>115</v>
+      </c>
+      <c r="B141">
+        <v>10.43289597119983</v>
+      </c>
+      <c r="C141">
+        <v>-0.23289597119983085</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>116</v>
+      </c>
+      <c r="B142">
+        <v>7.7388326104928575</v>
+      </c>
+      <c r="C142">
+        <v>-3.8832610492857356E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>117</v>
+      </c>
+      <c r="B143">
+        <v>7.7414582439316675</v>
+      </c>
+      <c r="C143">
+        <v>-0.5414582439316673</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>118</v>
+      </c>
+      <c r="B144">
+        <v>9.4103517509331613</v>
+      </c>
+      <c r="C144">
+        <v>-0.41035175093316134</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>119</v>
+      </c>
+      <c r="B145">
+        <v>10.43289597119983</v>
+      </c>
+      <c r="C145">
+        <v>-3.2895971199829788E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>120</v>
+      </c>
+      <c r="B146">
+        <v>4.7152318216542426</v>
+      </c>
+      <c r="C146">
+        <v>0.38476817834575705</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>121</v>
+      </c>
+      <c r="B147">
+        <v>6.7228524738232149</v>
+      </c>
+      <c r="C147">
+        <v>-0.32285247382321458</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>122</v>
+      </c>
+      <c r="B148">
+        <v>5.0526461501023157</v>
+      </c>
+      <c r="C148">
+        <v>-0.95264615010231601</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>123</v>
+      </c>
+      <c r="B149">
+        <v>8.4123484506696009</v>
+      </c>
+      <c r="C149">
+        <v>-0.41234845066960091</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>124</v>
+      </c>
+      <c r="B150">
+        <v>8.749762779117674</v>
+      </c>
+      <c r="C150">
+        <v>-0.24976277911767397</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>125</v>
+      </c>
+      <c r="B151">
+        <v>5.3758207934697282</v>
+      </c>
+      <c r="C151">
+        <v>-1.7758207934697281</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>126</v>
+      </c>
+      <c r="B152">
+        <v>7.7311570090092214</v>
+      </c>
+      <c r="C152">
+        <v>-0.4311570090092216</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>127</v>
+      </c>
+      <c r="B153">
+        <v>7.0718808539131404</v>
+      </c>
+      <c r="C153">
+        <v>-0.17188085391314001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>128</v>
+      </c>
+      <c r="B154">
+        <v>9.0755630559238973</v>
+      </c>
+      <c r="C154">
+        <v>-0.37556305592389805</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>129</v>
+      </c>
+      <c r="B155">
+        <v>7.740145427212263</v>
+      </c>
+      <c r="C155">
+        <v>1.0598545727877378</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>130</v>
+      </c>
+      <c r="B156">
+        <v>7.0602668022712889</v>
+      </c>
+      <c r="C156">
+        <v>1.2397331977287118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>131</v>
+      </c>
+      <c r="B157">
+        <v>8.0698841541767017</v>
+      </c>
+      <c r="C157">
+        <v>1.230115845823299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>132</v>
+      </c>
+      <c r="B158">
+        <v>7.7324698257286268</v>
+      </c>
+      <c r="C158">
+        <v>-0.23246982572862684</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>133</v>
+      </c>
+      <c r="B159">
+        <v>5.713235121917803</v>
+      </c>
+      <c r="C159">
+        <v>-1.323512191780285E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>134</v>
+      </c>
+      <c r="B160">
+        <v>8.749762779117674</v>
+      </c>
+      <c r="C160">
+        <v>-0.24976277911767397</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>135</v>
+      </c>
+      <c r="B161">
+        <v>7.7440838773704783</v>
+      </c>
+      <c r="C161">
+        <v>-0.34408387737047796</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>136</v>
+      </c>
+      <c r="B162">
+        <v>5.0384064650216551</v>
+      </c>
+      <c r="C162">
+        <v>0.86159353497834523</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>137</v>
+      </c>
+      <c r="B163">
+        <v>7.0550155353936681</v>
+      </c>
+      <c r="C163">
+        <v>0.9449844646063319</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>138</v>
+      </c>
+      <c r="B164">
+        <v>9.0742502392044919</v>
+      </c>
+      <c r="C164">
+        <v>-0.37425023920449263</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>139</v>
+      </c>
+      <c r="B165">
+        <v>6.385438145375141</v>
+      </c>
+      <c r="C165">
+        <v>-0.28543814537514134</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>140</v>
+      </c>
+      <c r="B166">
+        <v>5.7248491735596545</v>
+      </c>
+      <c r="C166">
+        <v>1.3751508264403451</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>141</v>
+      </c>
+      <c r="B167">
+        <v>6.7357793421844718</v>
+      </c>
+      <c r="C167">
+        <v>-0.43577934218447201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>142</v>
+      </c>
+      <c r="B168">
+        <v>5.0513333333829111</v>
+      </c>
+      <c r="C168">
+        <v>0.14866666661708905</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>143</v>
+      </c>
+      <c r="B169">
+        <v>6.398365013736397</v>
+      </c>
+      <c r="C169">
+        <v>-0.39836501373639699</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>144</v>
+      </c>
+      <c r="B170">
+        <v>8.7381487274758243</v>
+      </c>
+      <c r="C170">
+        <v>-0.33814872747582392</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>145</v>
+      </c>
+      <c r="B171">
+        <v>6.733153708745661</v>
+      </c>
+      <c r="C171">
+        <v>0.46684629125433919</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>146</v>
+      </c>
+      <c r="B172">
+        <v>7.7440838773704783</v>
+      </c>
+      <c r="C172">
+        <v>0.15591612262952204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>147</v>
+      </c>
+      <c r="B173">
+        <v>5.726161990279059</v>
+      </c>
+      <c r="C173">
+        <v>-0.52616199027905886</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>148</v>
+      </c>
+      <c r="B174">
+        <v>7.067942403754925</v>
+      </c>
+      <c r="C174">
+        <v>-6.7942403754924996E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>149</v>
+      </c>
+      <c r="B175">
+        <v>7.065316770316115</v>
+      </c>
+      <c r="C175">
+        <v>-0.16531677031611469</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>150</v>
+      </c>
+      <c r="B176">
+        <v>9.4142902010913776</v>
+      </c>
+      <c r="C176">
+        <v>1.185709798908622</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>151</v>
+      </c>
+      <c r="B177">
+        <v>9.0871771075657488</v>
+      </c>
+      <c r="C177">
+        <v>-8.7177107565748813E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>152</v>
+      </c>
+      <c r="B178">
+        <v>6.395739380297587</v>
+      </c>
+      <c r="C178">
+        <v>-0.7957393802975874</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>153</v>
+      </c>
+      <c r="B179">
+        <v>8.4123484506696009</v>
+      </c>
+      <c r="C179">
+        <v>0.3876515493303998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>154</v>
+      </c>
+      <c r="B180">
+        <v>9.0755630559238973</v>
+      </c>
+      <c r="C180">
+        <v>2.4436944076102307E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>155</v>
+      </c>
+      <c r="B181">
+        <v>10.758696248006052</v>
+      </c>
+      <c r="C181">
+        <v>0.44130375199394756</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>156</v>
+      </c>
+      <c r="B182">
+        <v>6.0506494503658761</v>
+      </c>
+      <c r="C182">
+        <v>-1.8506494503658759</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>157</v>
+      </c>
+      <c r="B183">
+        <v>6.7305280753068502</v>
+      </c>
+      <c r="C183">
+        <v>-0.43052807530685033</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>158</v>
+      </c>
+      <c r="B184">
+        <v>3.7043016530294248</v>
+      </c>
+      <c r="C184">
+        <v>-0.20430165302942482</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>159</v>
+      </c>
+      <c r="B185">
+        <v>6.7241652905426195</v>
+      </c>
+      <c r="C185">
+        <v>0.47583470945738071</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>160</v>
+      </c>
+      <c r="B186">
+        <v>4.3765046764867632</v>
+      </c>
+      <c r="C186">
+        <v>0.4234953235132366</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>161</v>
+      </c>
+      <c r="B187">
+        <v>9.7490788961006398</v>
+      </c>
+      <c r="C187">
+        <v>-1.8490788961006395</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>162</v>
+      </c>
+      <c r="B188">
+        <v>7.3924298638417421</v>
+      </c>
+      <c r="C188">
+        <v>-1.6924298638417419</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>163</v>
+      </c>
+      <c r="B189">
+        <v>6.0622635020077285</v>
+      </c>
+      <c r="C189">
+        <v>0.13773649799227172</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>164</v>
+      </c>
+      <c r="B190">
+        <v>8.0633200705796746</v>
+      </c>
+      <c r="C190">
+        <v>-1.0633200705796746</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>165</v>
+      </c>
+      <c r="B191">
+        <v>11.430899271463391</v>
+      </c>
+      <c r="C191">
+        <v>0.76910072853660871</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>166</v>
+      </c>
+      <c r="B192">
+        <v>5.0384064650216551</v>
+      </c>
+      <c r="C192">
+        <v>-1.5384064650216551</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>167</v>
+      </c>
+      <c r="B193">
+        <v>5.7222235401208437</v>
+      </c>
+      <c r="C193">
+        <v>-2.2223540120843488E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>168</v>
+      </c>
+      <c r="B194">
+        <v>10.083867591109904</v>
+      </c>
+      <c r="C194">
+        <v>-8.3867591109903827E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>169</v>
+      </c>
+      <c r="B195">
+        <v>6.0583250518495131</v>
+      </c>
+      <c r="C195">
+        <v>0.24167494815048673</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>170</v>
+      </c>
+      <c r="B196">
+        <v>6.7241652905426195</v>
+      </c>
+      <c r="C196">
+        <v>-0.22416529054261947</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>171</v>
+      </c>
+      <c r="B197">
+        <v>6.7189140236649996</v>
+      </c>
+      <c r="C197">
+        <v>0.68108597633500079</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>172</v>
+      </c>
+      <c r="B198">
+        <v>7.0666295870355196</v>
+      </c>
+      <c r="C198">
+        <v>-0.26662958703551976</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>173</v>
+      </c>
+      <c r="B199">
+        <v>6.0583250518495131</v>
+      </c>
+      <c r="C199">
+        <v>-0.65832505184951273</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>174</v>
+      </c>
+      <c r="B200">
+        <v>3.0320986295720869</v>
+      </c>
+      <c r="C200">
+        <v>0.46790137042791313</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>175</v>
+      </c>
+      <c r="B201">
+        <v>6.7228524738232149</v>
+      </c>
+      <c r="C201">
+        <v>-0.22285247382321494</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>176</v>
+      </c>
+      <c r="B202">
+        <v>8.4020472157471531</v>
+      </c>
+      <c r="C202">
+        <v>0.99795278425284728</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>177</v>
+      </c>
+      <c r="B203">
+        <v>4.7152318216542426</v>
+      </c>
+      <c r="C203">
+        <v>-0.11523182165424295</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>178</v>
+      </c>
+      <c r="B204">
+        <v>8.0685713374572963</v>
+      </c>
+      <c r="C204">
+        <v>0.23142866254270444</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>179</v>
+      </c>
+      <c r="B205">
+        <v>8.7394615441952279</v>
+      </c>
+      <c r="C205">
+        <v>-0.23946154419522792</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>180</v>
+      </c>
+      <c r="B206">
+        <v>6.0609506852883239</v>
+      </c>
+      <c r="C206">
+        <v>-0.2609506852883241</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>181</v>
+      </c>
+      <c r="B207">
+        <v>6.7344665254650664</v>
+      </c>
+      <c r="C207">
+        <v>-3.4466525465066233E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>182</v>
+      </c>
+      <c r="B208">
+        <v>9.7606929477424913</v>
+      </c>
+      <c r="C208">
+        <v>-0.86069294774249094</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>183</v>
+      </c>
+      <c r="B209">
+        <v>6.0506494503658761</v>
+      </c>
+      <c r="C209">
+        <v>-1.0506494503658761</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>184</v>
+      </c>
+      <c r="B210">
+        <v>7.3924298638417421</v>
+      </c>
+      <c r="C210">
+        <v>-9.2429863841742232E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>185</v>
+      </c>
+      <c r="B211">
+        <v>6.7241652905426195</v>
+      </c>
+      <c r="C211">
+        <v>-0.82416529054261911</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>186</v>
+      </c>
+      <c r="B212">
+        <v>6.0480238169270661</v>
+      </c>
+      <c r="C212">
+        <v>-4.8023816927066143E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>187</v>
+      </c>
+      <c r="B213">
+        <v>10.085180407829309</v>
+      </c>
+      <c r="C213">
+        <v>-0.18518040782930889</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>188</v>
+      </c>
+      <c r="B214">
+        <v>5.7119223051983976</v>
+      </c>
+      <c r="C214">
+        <v>-1.1922305198397432E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>189</v>
+      </c>
+      <c r="B215">
+        <v>7.7298441922898169</v>
+      </c>
+      <c r="C215">
+        <v>-2.0298441922898167</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>190</v>
+      </c>
+      <c r="B216">
+        <v>7.0589539855518844</v>
+      </c>
+      <c r="C216">
+        <v>-0.25895398555188454</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>191</v>
+      </c>
+      <c r="B217">
+        <v>7.0576411688324789</v>
+      </c>
+      <c r="C217">
+        <v>0.54235883116752071</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>192</v>
+      </c>
+      <c r="B218">
+        <v>5.3887476618309851</v>
+      </c>
+      <c r="C218">
+        <v>-0.38874766183098508</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>193</v>
+      </c>
+      <c r="B219">
+        <v>8.7510755958370794</v>
+      </c>
+      <c r="C219">
+        <v>2.3489244041629203</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>194</v>
+      </c>
+      <c r="B220">
+        <v>7.4040439154835935</v>
+      </c>
+      <c r="C220">
+        <v>0.29595608451640665</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>195</v>
+      </c>
+      <c r="B221">
+        <v>9.0781886893627082</v>
+      </c>
+      <c r="C221">
+        <v>-0.57818868936270817</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>196</v>
+      </c>
+      <c r="B222">
+        <v>8.7368359107564189</v>
+      </c>
+      <c r="C222">
+        <v>1.2631640892435811</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>197</v>
+      </c>
+      <c r="B223">
+        <v>6.7241652905426195</v>
+      </c>
+      <c r="C223">
+        <v>-0.62416529054261982</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>198</v>
+      </c>
+      <c r="B224">
+        <v>6.7344665254650664</v>
+      </c>
+      <c r="C224">
+        <v>0.26553347453493359</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>199</v>
+      </c>
+      <c r="B225">
+        <v>9.7606929477424913</v>
+      </c>
+      <c r="C225">
+        <v>0.33930705225750835</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>200</v>
+      </c>
+      <c r="B226">
+        <v>5.0513333333829111</v>
+      </c>
+      <c r="C226">
+        <v>-0.45133333338291148</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>201</v>
+      </c>
+      <c r="B227">
+        <v>5.3861220283921751</v>
+      </c>
+      <c r="C227">
+        <v>0.11387797160782487</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>202</v>
+      </c>
+      <c r="B228">
+        <v>6.7189140236649996</v>
+      </c>
+      <c r="C228">
+        <v>-0.41891402366499975</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>203</v>
+      </c>
+      <c r="B229">
+        <v>6.0467110002076616</v>
+      </c>
+      <c r="C229">
+        <v>0.15328899979233856</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>204</v>
+      </c>
+      <c r="B230">
+        <v>8.7407743609146333</v>
+      </c>
+      <c r="C230">
+        <v>-0.24077436091463333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>205</v>
+      </c>
+      <c r="B231">
+        <v>11.094797759734721</v>
+      </c>
+      <c r="C231">
+        <v>0.40520224026527885</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>206</v>
+      </c>
+      <c r="B232">
+        <v>8.0698841541767017</v>
+      </c>
+      <c r="C232">
+        <v>1.3301158458232987</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>207</v>
+      </c>
+      <c r="B233">
+        <v>8.7381487274758243</v>
+      </c>
+      <c r="C233">
+        <v>-0.23814872747582427</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>208</v>
+      </c>
+      <c r="B234">
+        <v>5.7235363568402491</v>
+      </c>
+      <c r="C234">
+        <v>0.37646364315975056</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>209</v>
+      </c>
+      <c r="B235">
+        <v>5.7209107234014391</v>
+      </c>
+      <c r="C235">
+        <v>-0.42091072340143931</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>210</v>
+      </c>
+      <c r="B236">
+        <v>11.094797759734721</v>
+      </c>
+      <c r="C236">
+        <v>-9.4797759734721154E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>211</v>
+      </c>
+      <c r="B237">
+        <v>7.4040439154835935</v>
+      </c>
+      <c r="C237">
+        <v>0.99595608451640683</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>212</v>
+      </c>
+      <c r="B238">
+        <v>5.7235363568402491</v>
+      </c>
+      <c r="C238">
+        <v>0.47646364315975109</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>213</v>
+      </c>
+      <c r="B239">
+        <v>6.0622635020077285</v>
+      </c>
+      <c r="C239">
+        <v>-1.0622635020077285</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>214</v>
+      </c>
+      <c r="B240">
+        <v>6.7305280753068502</v>
+      </c>
+      <c r="C240">
+        <v>-1.03052807530685</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>215</v>
+      </c>
+      <c r="B241">
+        <v>8.4020472157471531</v>
+      </c>
+      <c r="C241">
+        <v>-1.6020472157471533</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>216</v>
+      </c>
+      <c r="B242">
+        <v>5.7248491735596545</v>
+      </c>
+      <c r="C242">
+        <v>-1.2248491735596545</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>217</v>
+      </c>
+      <c r="B243">
+        <v>8.7510755958370794</v>
+      </c>
+      <c r="C243">
+        <v>0.14892440416292096</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>218</v>
+      </c>
+      <c r="B244">
+        <v>6.0583250518495131</v>
+      </c>
+      <c r="C244">
+        <v>-0.15832505184951273</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>219</v>
+      </c>
+      <c r="B245">
+        <v>8.0801853890991477</v>
+      </c>
+      <c r="C245">
+        <v>-0.9801853890991481</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>220</v>
+      </c>
+      <c r="B246">
+        <v>4.3791303099255732</v>
+      </c>
+      <c r="C246">
+        <v>-1.2791303099255731</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>221</v>
+      </c>
+      <c r="B247">
+        <v>10.096794459471161</v>
+      </c>
+      <c r="C247">
+        <v>-0.39679445947116143</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>222</v>
+      </c>
+      <c r="B248">
+        <v>8.7381487274758243</v>
+      </c>
+      <c r="C248">
+        <v>0.86185127252417537</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>223</v>
+      </c>
+      <c r="B249">
+        <v>9.7477660793812344</v>
+      </c>
+      <c r="C249">
+        <v>5.2233920618766305E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>224</v>
+      </c>
+      <c r="B250">
+        <v>5.7119223051983976</v>
+      </c>
+      <c r="C250">
+        <v>-0.21192230519839761</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>225</v>
+      </c>
+      <c r="B251">
+        <v>6.0506494503658761</v>
+      </c>
+      <c r="C251">
+        <v>0.34935054963412426</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>226</v>
+      </c>
+      <c r="B252">
+        <v>7.7427710606510729</v>
+      </c>
+      <c r="C252">
+        <v>-4.2771060651072723E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>227</v>
+      </c>
+      <c r="B253">
+        <v>6.398365013736397</v>
+      </c>
+      <c r="C253">
+        <v>-0.29836501373639734</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>228</v>
+      </c>
+      <c r="B254">
+        <v>5.0397192817410597</v>
+      </c>
+      <c r="C254">
+        <v>-0.23971928174105983</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>229</v>
+      </c>
+      <c r="B255">
+        <v>6.3841253286557356</v>
+      </c>
+      <c r="C255">
+        <v>0.11587467134426443</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>230</v>
+      </c>
+      <c r="B256">
+        <v>5.7106094884789931</v>
+      </c>
+      <c r="C256">
+        <v>-1.0609488478992901E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>231</v>
+      </c>
+      <c r="B257">
+        <v>6.0583250518495131</v>
+      </c>
+      <c r="C257">
+        <v>-0.75832505184951327</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>232</v>
+      </c>
+      <c r="B258">
+        <v>10.43289597119983</v>
+      </c>
+      <c r="C258">
+        <v>0.1671040288001695</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>233</v>
+      </c>
+      <c r="B259">
+        <v>10.422594736277384</v>
+      </c>
+      <c r="C259">
+        <v>-1.2225947362773848</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>234</v>
+      </c>
+      <c r="B260">
+        <v>9.0742502392044919</v>
+      </c>
+      <c r="C260">
+        <v>-7.4250239204491919E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>235</v>
+      </c>
+      <c r="B261">
+        <v>8.4033600324665603</v>
+      </c>
+      <c r="C261">
+        <v>0.69663996753343937</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>236</v>
+      </c>
+      <c r="B262">
+        <v>5.3745079767503237</v>
+      </c>
+      <c r="C262">
+        <v>-0.17450797675032348</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>237</v>
+      </c>
+      <c r="B263">
+        <v>7.7285313755704106</v>
+      </c>
+      <c r="C263">
+        <v>0.17146862442958977</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>238</v>
+      </c>
+      <c r="B264">
+        <v>9.0742502392044919</v>
+      </c>
+      <c r="C264">
+        <v>0.82574976079550844</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>239</v>
+      </c>
+      <c r="B265">
+        <v>5.3887476618309851</v>
+      </c>
+      <c r="C265">
+        <v>0.3112523381690151</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>240</v>
+      </c>
+      <c r="B266">
+        <v>4.0417159814774992</v>
+      </c>
+      <c r="C266">
+        <v>-0.14171598147749931</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>241</v>
+      </c>
+      <c r="B267">
+        <v>9.7606929477424913</v>
+      </c>
+      <c r="C267">
+        <v>-0.66069294774249165</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>242</v>
+      </c>
+      <c r="B268">
+        <v>8.0685713374572963</v>
+      </c>
+      <c r="C268">
+        <v>0.23142866254270444</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>243</v>
+      </c>
+      <c r="B269">
+        <v>8.0685713374572963</v>
+      </c>
+      <c r="C269">
+        <v>-0.86857133745729609</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>244</v>
+      </c>
+      <c r="B270">
+        <v>8.7394615441952279</v>
+      </c>
+      <c r="C270">
+        <v>-0.23946154419522792</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>245</v>
+      </c>
+      <c r="B271">
+        <v>4.7152318216542426</v>
+      </c>
+      <c r="C271">
+        <v>0.88476817834575705</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>246</v>
+      </c>
+      <c r="B272">
+        <v>10.757383431286646</v>
+      </c>
+      <c r="C272">
+        <v>0.94261656871335298</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>247</v>
+      </c>
+      <c r="B273">
+        <v>4.7152318216542426</v>
+      </c>
+      <c r="C273">
+        <v>0.18476817834575776</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>248</v>
+      </c>
+      <c r="B274">
+        <v>6.385438145375141</v>
+      </c>
+      <c r="C274">
+        <v>1.4561854624859372E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>249</v>
+      </c>
+      <c r="B275">
+        <v>5.3861220283921751</v>
+      </c>
+      <c r="C275">
+        <v>1.4138779716078247</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>250</v>
+      </c>
+      <c r="B276">
+        <v>9.4142902010913776</v>
+      </c>
+      <c r="C276">
+        <v>0.88570979890862311</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>251</v>
+      </c>
+      <c r="B277">
+        <v>7.7324698257286268</v>
+      </c>
+      <c r="C277">
+        <v>1.0675301742713739</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>252</v>
+      </c>
+      <c r="B278">
+        <v>8.7381487274758243</v>
+      </c>
+      <c r="C278">
+        <v>6.1851272524176437E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>253</v>
+      </c>
+      <c r="B279">
+        <v>9.0858642908463434</v>
+      </c>
+      <c r="C279">
+        <v>0.41413570915365661</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>254</v>
+      </c>
+      <c r="B280">
+        <v>8.4033600324665603</v>
+      </c>
+      <c r="C280">
+        <v>0.29663996753343902</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>255</v>
+      </c>
+      <c r="B281">
+        <v>9.0768758726433028</v>
+      </c>
+      <c r="C281">
+        <v>-0.1768758726433024</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>256</v>
+      </c>
+      <c r="B282">
+        <v>9.0781886893627082</v>
+      </c>
+      <c r="C282">
+        <v>-1.5781886893627082</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>257</v>
+      </c>
+      <c r="B283">
+        <v>6.0583250518495131</v>
+      </c>
+      <c r="C283">
+        <v>-0.25832505184951327</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>258</v>
+      </c>
+      <c r="B284">
+        <v>8.4033600324665603</v>
+      </c>
+      <c r="C284">
+        <v>-0.20336003246656098</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>259</v>
+      </c>
+      <c r="B285">
+        <v>5.7119223051983976</v>
+      </c>
+      <c r="C285">
+        <v>8.8077694801602213E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>260</v>
+      </c>
+      <c r="B286">
+        <v>8.0685713374572963</v>
+      </c>
+      <c r="C286">
+        <v>-6.8571337457296266E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>261</v>
+      </c>
+      <c r="B287">
+        <v>9.0742502392044919</v>
+      </c>
+      <c r="C287">
+        <v>-7.4250239204491919E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>262</v>
+      </c>
+      <c r="B288">
+        <v>7.7285313755704106</v>
+      </c>
+      <c r="C288">
+        <v>-0.32853137557041023</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>263</v>
+      </c>
+      <c r="B289">
+        <v>7.0692552204743304</v>
+      </c>
+      <c r="C289">
+        <v>-6.9255220474330415E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>264</v>
+      </c>
+      <c r="B290">
+        <v>10.757383431286646</v>
+      </c>
+      <c r="C290">
+        <v>-0.4573834312866456</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>265</v>
+      </c>
+      <c r="B291">
+        <v>10.083867591109904</v>
+      </c>
+      <c r="C291">
+        <v>-0.88386759110990454</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>266</v>
+      </c>
+      <c r="B292">
+        <v>8.4136612673890063</v>
+      </c>
+      <c r="C292">
+        <v>8.6338732610993674E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>267</v>
+      </c>
+      <c r="B293">
+        <v>8.4162869008278172</v>
+      </c>
+      <c r="C293">
+        <v>0.48371309917218319</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>268</v>
+      </c>
+      <c r="B294">
+        <v>11.094797759734721</v>
+      </c>
+      <c r="C294">
+        <v>1.2052022402652796</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>269</v>
+      </c>
+      <c r="B295">
+        <v>5.3771336101891336</v>
+      </c>
+      <c r="C295">
+        <v>0.32286638981086657</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>270</v>
+      </c>
+      <c r="B296">
+        <v>8.7368359107564189</v>
+      </c>
+      <c r="C296">
+        <v>0.6631640892435815</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>271</v>
+      </c>
+      <c r="B297">
+        <v>4.3765046764867632</v>
+      </c>
+      <c r="C297">
+        <v>-0.37650467648676322</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>272</v>
+      </c>
+      <c r="B298">
+        <v>6.7241652905426195</v>
+      </c>
+      <c r="C298">
+        <v>1.1758347094573809</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>273</v>
+      </c>
+      <c r="B299">
+        <v>5.3745079767503237</v>
+      </c>
+      <c r="C299">
+        <v>0.32549202324967652</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>274</v>
+      </c>
+      <c r="B300">
+        <v>11.430899271463391</v>
+      </c>
+      <c r="C300">
+        <v>-0.23089927146339129</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>275</v>
+      </c>
+      <c r="B301">
+        <v>11.094797759734721</v>
+      </c>
+      <c r="C301">
+        <v>0.20520224026527956</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>276</v>
+      </c>
+      <c r="B302">
+        <v>4.0404031647580947</v>
+      </c>
+      <c r="C302">
+        <v>-0.64040316475809478</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>277</v>
+      </c>
+      <c r="B303">
+        <v>4.3778174932061678</v>
+      </c>
+      <c r="C303">
+        <v>0.12218250679383225</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>278</v>
+      </c>
+      <c r="B304">
+        <v>8.7381487274758243</v>
+      </c>
+      <c r="C304">
+        <v>-0.33814872747582392</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>279</v>
+      </c>
+      <c r="B305">
+        <v>7.7311570090092214</v>
+      </c>
+      <c r="C305">
+        <v>1.0688429909907793</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>280</v>
+      </c>
+      <c r="B306">
+        <v>3.3682001413007563</v>
+      </c>
+      <c r="C306">
+        <v>0.33179985869924389</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>281</v>
+      </c>
+      <c r="B307">
+        <v>4.3662034415643163</v>
+      </c>
+      <c r="C307">
+        <v>0.3337965584356839</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>282</v>
+      </c>
+      <c r="B308">
+        <v>8.4149740841084117</v>
+      </c>
+      <c r="C308">
+        <v>-0.11497408410841103</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>283</v>
+      </c>
+      <c r="B309">
+        <v>6.7189140236649996</v>
+      </c>
+      <c r="C309">
+        <v>0.38108597633500008</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>284</v>
+      </c>
+      <c r="B310">
+        <v>10.422594736277384</v>
+      </c>
+      <c r="C310">
+        <v>0.87740526372261662</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>285</v>
+      </c>
+      <c r="B311">
+        <v>6.0596378685689185</v>
+      </c>
+      <c r="C311">
+        <v>4.0362131431081139E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>286</v>
+      </c>
+      <c r="B312">
+        <v>6.3931137468587771</v>
+      </c>
+      <c r="C312">
+        <v>1.6068862531412229</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>287</v>
+      </c>
+      <c r="B313">
+        <v>7.0576411688324789</v>
+      </c>
+      <c r="C313">
+        <v>0.24235883116752088</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>288</v>
+      </c>
+      <c r="B314">
+        <v>7.0666295870355196</v>
+      </c>
+      <c r="C314">
+        <v>0.1333704129644806</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>289</v>
+      </c>
+      <c r="B315">
+        <v>6.7241652905426195</v>
+      </c>
+      <c r="C315">
+        <v>0.87583470945738018</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>290</v>
+      </c>
+      <c r="B316">
+        <v>7.7285313755704106</v>
+      </c>
+      <c r="C316">
+        <v>7.1468624429589234E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>291</v>
+      </c>
+      <c r="B317">
+        <v>6.0583250518495131</v>
+      </c>
+      <c r="C317">
+        <v>0.44167494815048691</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>292</v>
+      </c>
+      <c r="B318">
+        <v>5.7222235401208437</v>
+      </c>
+      <c r="C318">
+        <v>0.37777645987915598</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>293</v>
+      </c>
+      <c r="B319">
+        <v>7.4053567322029998</v>
+      </c>
+      <c r="C319">
+        <v>-0.20535673220299966</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>294</v>
+      </c>
+      <c r="B320">
+        <v>8.4162869008278172</v>
+      </c>
+      <c r="C320">
+        <v>0.48371309917218319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>295</v>
+      </c>
+      <c r="B321">
+        <v>11.094797759734721</v>
+      </c>
+      <c r="C321">
+        <v>-0.1947977597347208</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>296</v>
+      </c>
+      <c r="B322">
+        <v>6.7228524738232149</v>
+      </c>
+      <c r="C322">
+        <v>0.47714752617678524</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>297</v>
+      </c>
+      <c r="B323">
+        <v>3.7043016530294248</v>
+      </c>
+      <c r="C323">
+        <v>-0.20430165302942482</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>298</v>
+      </c>
+      <c r="B324">
+        <v>7.7285313755704106</v>
+      </c>
+      <c r="C324">
+        <v>0.27146862442958941</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>299</v>
+      </c>
+      <c r="B325">
+        <v>7.7388326104928575</v>
+      </c>
+      <c r="C325">
+        <v>6.1167389507142289E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A326" s="8">
+        <v>300</v>
+      </c>
+      <c r="B326" s="8">
+        <v>9.0781886893627082</v>
+      </c>
+      <c r="C326" s="8">
+        <v>0.92181131063729183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -10672,28 +14283,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>